--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il10-Il10ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Il10</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.31912438911437</v>
+        <v>0.7511673333333334</v>
       </c>
       <c r="H2">
-        <v>2.31912438911437</v>
+        <v>2.253502</v>
       </c>
       <c r="I2">
-        <v>0.1489240493647163</v>
+        <v>0.0429632240276293</v>
       </c>
       <c r="J2">
-        <v>0.1489240493647163</v>
+        <v>0.04296322402762929</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>44.6641910779108</v>
+        <v>0.07334</v>
       </c>
       <c r="N2">
-        <v>44.6641910779108</v>
+        <v>0.22002</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.001414029284930815</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001414029284930815</v>
       </c>
       <c r="Q2">
-        <v>103.5818148488474</v>
+        <v>0.05509061222666668</v>
       </c>
       <c r="R2">
-        <v>103.5818148488474</v>
+        <v>0.49581551004</v>
       </c>
       <c r="S2">
-        <v>0.1489240493647163</v>
+        <v>6.075125695011106E-05</v>
       </c>
       <c r="T2">
-        <v>0.1489240493647163</v>
+        <v>6.075125695011104E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>13.2534067031259</v>
+        <v>0.7511673333333334</v>
       </c>
       <c r="H3">
-        <v>13.2534067031259</v>
+        <v>2.253502</v>
       </c>
       <c r="I3">
-        <v>0.8510759506352837</v>
+        <v>0.0429632240276293</v>
       </c>
       <c r="J3">
-        <v>0.8510759506352837</v>
+        <v>0.04296322402762929</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>44.6641910779108</v>
+        <v>0.07822766666666667</v>
       </c>
       <c r="N3">
-        <v>44.6641910779108</v>
+        <v>0.234683</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001508265769818282</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001508265769818282</v>
       </c>
       <c r="Q3">
-        <v>591.952689421679</v>
+        <v>0.05876206776288889</v>
       </c>
       <c r="R3">
-        <v>591.952689421679</v>
+        <v>0.5288586098660001</v>
       </c>
       <c r="S3">
-        <v>0.8510759506352837</v>
+        <v>6.479996016190761E-05</v>
       </c>
       <c r="T3">
-        <v>0.8510759506352837</v>
+        <v>6.47999601619076E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.7511673333333334</v>
+      </c>
+      <c r="H4">
+        <v>2.253502</v>
+      </c>
+      <c r="I4">
+        <v>0.0429632240276293</v>
+      </c>
+      <c r="J4">
+        <v>0.04296322402762929</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>50.931315</v>
+      </c>
+      <c r="N4">
+        <v>152.793945</v>
+      </c>
+      <c r="O4">
+        <v>0.9819794236437972</v>
+      </c>
+      <c r="P4">
+        <v>0.9819794236437971</v>
+      </c>
+      <c r="Q4">
+        <v>38.25794007171001</v>
+      </c>
+      <c r="R4">
+        <v>344.3214606453901</v>
+      </c>
+      <c r="S4">
+        <v>0.04218900196853075</v>
+      </c>
+      <c r="T4">
+        <v>0.04218900196853075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7511673333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.253502</v>
+      </c>
+      <c r="I5">
+        <v>0.0429632240276293</v>
+      </c>
+      <c r="J5">
+        <v>0.04296322402762929</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.783087</v>
+      </c>
+      <c r="N5">
+        <v>2.349261</v>
+      </c>
+      <c r="O5">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="P5">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="Q5">
+        <v>0.5882293735580001</v>
+      </c>
+      <c r="R5">
+        <v>5.294064362022</v>
+      </c>
+      <c r="S5">
+        <v>0.0006486708419865231</v>
+      </c>
+      <c r="T5">
+        <v>0.0006486708419865231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.407869333333334</v>
+      </c>
+      <c r="H6">
+        <v>7.223608</v>
+      </c>
+      <c r="I6">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="J6">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.07334</v>
+      </c>
+      <c r="N6">
+        <v>0.22002</v>
+      </c>
+      <c r="O6">
+        <v>0.001414029284930815</v>
+      </c>
+      <c r="P6">
+        <v>0.001414029284930815</v>
+      </c>
+      <c r="Q6">
+        <v>0.1765931369066667</v>
+      </c>
+      <c r="R6">
+        <v>1.58933823216</v>
+      </c>
+      <c r="S6">
+        <v>0.0001947383520027397</v>
+      </c>
+      <c r="T6">
+        <v>0.0001947383520027396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.407869333333334</v>
+      </c>
+      <c r="H7">
+        <v>7.223608</v>
+      </c>
+      <c r="I7">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="J7">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.07822766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.234683</v>
+      </c>
+      <c r="O7">
+        <v>0.001508265769818282</v>
+      </c>
+      <c r="P7">
+        <v>0.001508265769818282</v>
+      </c>
+      <c r="Q7">
+        <v>0.1883619995848889</v>
+      </c>
+      <c r="R7">
+        <v>1.695257996264</v>
+      </c>
+      <c r="S7">
+        <v>0.0002077164833336013</v>
+      </c>
+      <c r="T7">
+        <v>0.0002077164833336012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.407869333333334</v>
+      </c>
+      <c r="H8">
+        <v>7.223608</v>
+      </c>
+      <c r="I8">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="J8">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>50.931315</v>
+      </c>
+      <c r="N8">
+        <v>152.793945</v>
+      </c>
+      <c r="O8">
+        <v>0.9819794236437972</v>
+      </c>
+      <c r="P8">
+        <v>0.9819794236437971</v>
+      </c>
+      <c r="Q8">
+        <v>122.63595149484</v>
+      </c>
+      <c r="R8">
+        <v>1103.72356345356</v>
+      </c>
+      <c r="S8">
+        <v>0.1352369832074232</v>
+      </c>
+      <c r="T8">
+        <v>0.1352369832074231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.407869333333334</v>
+      </c>
+      <c r="H9">
+        <v>7.223608</v>
+      </c>
+      <c r="I9">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="J9">
+        <v>0.1377187545392794</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.783087</v>
+      </c>
+      <c r="N9">
+        <v>2.349261</v>
+      </c>
+      <c r="O9">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="P9">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="Q9">
+        <v>1.885571172632</v>
+      </c>
+      <c r="R9">
+        <v>16.970140553688</v>
+      </c>
+      <c r="S9">
+        <v>0.002079316496519898</v>
+      </c>
+      <c r="T9">
+        <v>0.002079316496519898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.41436666666667</v>
+      </c>
+      <c r="H10">
+        <v>40.2431</v>
+      </c>
+      <c r="I10">
+        <v>0.7672384230705313</v>
+      </c>
+      <c r="J10">
+        <v>0.7672384230705311</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07334</v>
+      </c>
+      <c r="N10">
+        <v>0.22002</v>
+      </c>
+      <c r="O10">
+        <v>0.001414029284930815</v>
+      </c>
+      <c r="P10">
+        <v>0.001414029284930815</v>
+      </c>
+      <c r="Q10">
+        <v>0.9838096513333333</v>
+      </c>
+      <c r="R10">
+        <v>8.854286861999999</v>
+      </c>
+      <c r="S10">
+        <v>0.001084897598745869</v>
+      </c>
+      <c r="T10">
+        <v>0.001084897598745869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.41436666666667</v>
+      </c>
+      <c r="H11">
+        <v>40.2431</v>
+      </c>
+      <c r="I11">
+        <v>0.7672384230705313</v>
+      </c>
+      <c r="J11">
+        <v>0.7672384230705311</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07822766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.234683</v>
+      </c>
+      <c r="O11">
+        <v>0.001508265769818282</v>
+      </c>
+      <c r="P11">
+        <v>0.001508265769818282</v>
+      </c>
+      <c r="Q11">
+        <v>1.049374604144445</v>
+      </c>
+      <c r="R11">
+        <v>9.444371437299999</v>
+      </c>
+      <c r="S11">
+        <v>0.001157199450806639</v>
+      </c>
+      <c r="T11">
+        <v>0.001157199450806639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.41436666666667</v>
+      </c>
+      <c r="H12">
+        <v>40.2431</v>
+      </c>
+      <c r="I12">
+        <v>0.7672384230705313</v>
+      </c>
+      <c r="J12">
+        <v>0.7672384230705311</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>50.931315</v>
+      </c>
+      <c r="N12">
+        <v>152.793945</v>
+      </c>
+      <c r="O12">
+        <v>0.9819794236437972</v>
+      </c>
+      <c r="P12">
+        <v>0.9819794236437971</v>
+      </c>
+      <c r="Q12">
+        <v>683.2113342255001</v>
+      </c>
+      <c r="R12">
+        <v>6148.9020080295</v>
+      </c>
+      <c r="S12">
+        <v>0.7534123444841762</v>
+      </c>
+      <c r="T12">
+        <v>0.7534123444841759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.41436666666667</v>
+      </c>
+      <c r="H13">
+        <v>40.2431</v>
+      </c>
+      <c r="I13">
+        <v>0.7672384230705313</v>
+      </c>
+      <c r="J13">
+        <v>0.7672384230705311</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.783087</v>
+      </c>
+      <c r="N13">
+        <v>2.349261</v>
+      </c>
+      <c r="O13">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="P13">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="Q13">
+        <v>10.5046161499</v>
+      </c>
+      <c r="R13">
+        <v>94.54154534909999</v>
+      </c>
+      <c r="S13">
+        <v>0.01158398153680265</v>
+      </c>
+      <c r="T13">
+        <v>0.01158398153680265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.9105576666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.731673</v>
+      </c>
+      <c r="I14">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="J14">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07334</v>
+      </c>
+      <c r="N14">
+        <v>0.22002</v>
+      </c>
+      <c r="O14">
+        <v>0.001414029284930815</v>
+      </c>
+      <c r="P14">
+        <v>0.001414029284930815</v>
+      </c>
+      <c r="Q14">
+        <v>0.06678029927333333</v>
+      </c>
+      <c r="R14">
+        <v>0.6010226934599999</v>
+      </c>
+      <c r="S14">
+        <v>7.364207723209507E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.364207723209505E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.9105576666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.731673</v>
+      </c>
+      <c r="I15">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="J15">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07822766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.234683</v>
+      </c>
+      <c r="O15">
+        <v>0.001508265769818282</v>
+      </c>
+      <c r="P15">
+        <v>0.001508265769818282</v>
+      </c>
+      <c r="Q15">
+        <v>0.07123080162877778</v>
+      </c>
+      <c r="R15">
+        <v>0.6410772146589999</v>
+      </c>
+      <c r="S15">
+        <v>7.854987551613383E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.854987551613382E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.9105576666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.731673</v>
+      </c>
+      <c r="I16">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="J16">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>50.931315</v>
+      </c>
+      <c r="N16">
+        <v>152.793945</v>
+      </c>
+      <c r="O16">
+        <v>0.9819794236437972</v>
+      </c>
+      <c r="P16">
+        <v>0.9819794236437971</v>
+      </c>
+      <c r="Q16">
+        <v>46.375899346665</v>
+      </c>
+      <c r="R16">
+        <v>417.383094119985</v>
+      </c>
+      <c r="S16">
+        <v>0.05114109398366733</v>
+      </c>
+      <c r="T16">
+        <v>0.05114109398366732</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.9105576666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.731673</v>
+      </c>
+      <c r="I17">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="J17">
+        <v>0.05207959836256022</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.783087</v>
+      </c>
+      <c r="N17">
+        <v>2.349261</v>
+      </c>
+      <c r="O17">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="P17">
+        <v>0.01509828130145373</v>
+      </c>
+      <c r="Q17">
+        <v>0.7130458715169999</v>
+      </c>
+      <c r="R17">
+        <v>6.417412843652999</v>
+      </c>
+      <c r="S17">
+        <v>0.0007863124261446635</v>
+      </c>
+      <c r="T17">
+        <v>0.0007863124261446633</v>
       </c>
     </row>
   </sheetData>
